--- a/data/trans_dic/P35-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P35-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,32; 24,08</t>
+          <t>8,96; 23,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,01; 29,34</t>
+          <t>14,81; 29,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,96; 29,08</t>
+          <t>13,46; 28,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,25; 37,53</t>
+          <t>19,69; 37,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 31,16</t>
+          <t>17,09; 32,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,8; 41,47</t>
+          <t>22,51; 41,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,39; 41,04</t>
+          <t>23,3; 40,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,18; 38,21</t>
+          <t>25,15; 37,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 25,34</t>
+          <t>15,1; 25,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,26; 33,06</t>
+          <t>20,74; 32,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,16; 31,5</t>
+          <t>20,41; 31,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,31; 34,8</t>
+          <t>24,22; 35,3</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,38; 21,95</t>
+          <t>15,65; 22,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,36; 28,8</t>
+          <t>21,35; 28,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,05; 26,5</t>
+          <t>18,74; 26,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,93; 39,49</t>
+          <t>31,07; 39,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,55; 25,6</t>
+          <t>18,5; 25,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,07; 36,18</t>
+          <t>28,07; 36,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,43; 34,3</t>
+          <t>26,59; 34,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,19; 39,71</t>
+          <t>33,23; 39,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 22,61</t>
+          <t>17,57; 22,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,71; 31,24</t>
+          <t>25,71; 31,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,04; 29,34</t>
+          <t>23,79; 29,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,19; 38,31</t>
+          <t>33,07; 38,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,56; 18,45</t>
+          <t>13,69; 18,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,31; 29,0</t>
+          <t>23,11; 28,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,42; 31,07</t>
+          <t>25,98; 31,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,59; 37,91</t>
+          <t>28,44; 38,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,58; 26,4</t>
+          <t>20,55; 26,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,83; 38,01</t>
+          <t>31,64; 38,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,25; 40,52</t>
+          <t>34,24; 40,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,37; 45,04</t>
+          <t>39,02; 44,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 21,49</t>
+          <t>17,6; 21,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,29; 32,44</t>
+          <t>28,24; 32,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31,0; 35,26</t>
+          <t>30,77; 35,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,84; 40,67</t>
+          <t>34,45; 40,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 23,92</t>
+          <t>16,78; 23,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,08</t>
+          <t>23,28; 30,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,93; 36,15</t>
+          <t>29,2; 36,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,72; 38,98</t>
+          <t>30,76; 39,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 28,85</t>
+          <t>22,31; 29,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,7; 39,03</t>
+          <t>31,65; 38,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,8; 40,95</t>
+          <t>33,75; 41,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,67; 37,85</t>
+          <t>21,45; 37,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,57; 25,18</t>
+          <t>20,73; 25,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,45; 33,4</t>
+          <t>28,27; 33,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,61; 37,63</t>
+          <t>32,54; 37,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,41; 36,92</t>
+          <t>25,87; 36,87</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,77; 19,25</t>
+          <t>14,53; 19,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,83; 30,35</t>
+          <t>23,78; 30,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,7; 30,52</t>
+          <t>24,84; 30,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,65; 40,05</t>
+          <t>33,94; 40,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,63; 19,43</t>
+          <t>14,68; 19,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,87; 37,83</t>
+          <t>31,99; 37,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,86; 35,89</t>
+          <t>29,58; 35,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,66; 41,22</t>
+          <t>35,51; 41,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,2; 18,53</t>
+          <t>15,06; 18,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,0; 33,64</t>
+          <t>29,05; 33,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,18; 32,64</t>
+          <t>28,64; 32,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,47; 39,88</t>
+          <t>35,69; 39,88</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,79</t>
+          <t>16,26; 18,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,29; 27,43</t>
+          <t>24,36; 27,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,35; 29,55</t>
+          <t>26,44; 29,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,8; 37,09</t>
+          <t>32,91; 37,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,18; 23,21</t>
+          <t>20,27; 23,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,25</t>
+          <t>32,79; 36,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,29; 36,43</t>
+          <t>33,06; 36,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,59; 39,22</t>
+          <t>32,75; 39,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,61; 20,5</t>
+          <t>18,62; 20,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,17; 31,43</t>
+          <t>29,06; 31,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>30,37; 32,66</t>
+          <t>30,28; 32,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,08; 37,66</t>
+          <t>34,3; 37,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P35-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P35-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 23,04</t>
+          <t>9,16; 22,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,81; 29,18</t>
+          <t>14,26; 29,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,46; 28,55</t>
+          <t>12,75; 28,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,09; 32,7</t>
+          <t>16,47; 31,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,51; 41,05</t>
+          <t>22,92; 41,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,3; 40,98</t>
+          <t>23,48; 40,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,1; 25,46</t>
+          <t>14,52; 24,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,74; 32,0</t>
+          <t>20,09; 32,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,41; 31,72</t>
+          <t>20,21; 31,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 22,08</t>
+          <t>15,64; 22,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,35; 28,4</t>
+          <t>20,98; 28,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,74; 26,06</t>
+          <t>18,71; 26,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,5; 25,6</t>
+          <t>18,55; 25,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,07; 36,49</t>
+          <t>28,16; 35,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,59; 34,21</t>
+          <t>26,58; 34,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,57; 22,66</t>
+          <t>17,79; 22,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,71; 31,26</t>
+          <t>25,76; 31,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,79; 29,18</t>
+          <t>23,77; 28,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,69; 18,26</t>
+          <t>13,65; 18,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,11; 28,91</t>
+          <t>23,04; 29,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,98; 31,93</t>
+          <t>25,93; 31,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,55; 26,33</t>
+          <t>20,48; 25,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,64; 38,31</t>
+          <t>31,88; 38,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,24; 40,42</t>
+          <t>34,48; 40,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,6; 21,31</t>
+          <t>17,62; 21,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,24; 32,55</t>
+          <t>28,19; 32,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,77; 35,08</t>
+          <t>30,8; 35,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 23,65</t>
+          <t>17,0; 23,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,28; 30,29</t>
+          <t>23,07; 29,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,2; 36,23</t>
+          <t>29,23; 36,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,31; 29,1</t>
+          <t>22,1; 29,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,65; 38,88</t>
+          <t>31,76; 38,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,75; 41,1</t>
+          <t>34,05; 41,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,73; 25,35</t>
+          <t>20,42; 25,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,27; 33,37</t>
+          <t>28,53; 33,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,54; 37,63</t>
+          <t>32,51; 37,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,53; 19,42</t>
+          <t>14,62; 19,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,78; 30,08</t>
+          <t>23,76; 30,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,84; 30,64</t>
+          <t>24,86; 30,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 19,53</t>
+          <t>14,68; 19,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,99; 37,81</t>
+          <t>32,06; 38,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,58; 35,75</t>
+          <t>29,93; 35,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,06; 18,54</t>
+          <t>15,35; 18,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,05; 33,74</t>
+          <t>29,16; 33,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,64; 32,98</t>
+          <t>28,29; 32,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,26; 18,98</t>
+          <t>16,15; 18,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,36; 27,58</t>
+          <t>24,45; 27,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,44; 29,65</t>
+          <t>26,47; 29,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,27; 23,04</t>
+          <t>20,08; 23,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,79; 36,14</t>
+          <t>32,73; 36,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,06; 36,49</t>
+          <t>33,08; 36,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,62; 20,52</t>
+          <t>18,52; 20,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,06; 31,55</t>
+          <t>29,09; 31,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>30,28; 32,66</t>
+          <t>30,3; 32,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P35-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P35-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 22,74</t>
+          <t>9,32; 24,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 29,16</t>
+          <t>15,01; 29,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 28,32</t>
+          <t>13,96; 29,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,69; 37,37</t>
+          <t>19,25; 37,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,47; 31,14</t>
+          <t>17,04; 31,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,92; 41,42</t>
+          <t>22,8; 41,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,48; 40,74</t>
+          <t>22,39; 41,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,15; 37,96</t>
+          <t>25,18; 38,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,52; 24,86</t>
+          <t>15,34; 25,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,09; 32,04</t>
+          <t>20,26; 33,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,21; 31,79</t>
+          <t>20,16; 31,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,22; 35,3</t>
+          <t>24,31; 34,8</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,64; 22,05</t>
+          <t>15,38; 21,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,98; 28,61</t>
+          <t>21,36; 28,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,71; 26,23</t>
+          <t>19,05; 26,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,07; 39,14</t>
+          <t>30,93; 39,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,55; 25,86</t>
+          <t>18,55; 25,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,16; 35,57</t>
+          <t>28,07; 36,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,58; 34,29</t>
+          <t>26,43; 34,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,23; 39,56</t>
+          <t>33,19; 39,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 22,68</t>
+          <t>17,85; 22,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,76; 31,19</t>
+          <t>25,71; 31,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,77; 28,86</t>
+          <t>24,04; 29,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,07; 38,37</t>
+          <t>33,19; 38,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,65; 18,3</t>
+          <t>13,56; 18,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,04; 29,03</t>
+          <t>23,31; 29,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,93; 31,56</t>
+          <t>25,42; 31,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,44; 38,11</t>
+          <t>28,59; 37,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,48; 25,97</t>
+          <t>20,58; 26,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,88; 38,28</t>
+          <t>31,83; 38,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,48; 40,61</t>
+          <t>34,25; 40,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,02; 44,72</t>
+          <t>39,37; 45,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,62; 21,45</t>
+          <t>17,64; 21,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,19; 32,65</t>
+          <t>28,29; 32,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,8; 35,37</t>
+          <t>31,0; 35,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,45; 40,27</t>
+          <t>34,84; 40,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,22</t>
+          <t>17,15; 23,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,07; 29,88</t>
+          <t>22,68; 30,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,23; 36,11</t>
+          <t>28,93; 36,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,76; 39,18</t>
+          <t>30,72; 38,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,1; 29,02</t>
+          <t>22,3; 28,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,76; 38,95</t>
+          <t>31,7; 39,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,05; 41,07</t>
+          <t>33,8; 40,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,45; 37,95</t>
+          <t>21,67; 37,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,42; 25,29</t>
+          <t>20,57; 25,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,53; 33,33</t>
+          <t>28,45; 33,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,51; 37,47</t>
+          <t>32,61; 37,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,87; 36,87</t>
+          <t>26,41; 36,92</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,62; 19,44</t>
+          <t>14,77; 19,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,76; 30,15</t>
+          <t>23,83; 30,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,86; 30,61</t>
+          <t>24,7; 30,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,94; 40,21</t>
+          <t>33,65; 40,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 19,25</t>
+          <t>14,63; 19,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,06; 38,15</t>
+          <t>31,87; 37,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,93; 35,82</t>
+          <t>29,86; 35,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,51; 41,49</t>
+          <t>35,66; 41,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,35; 18,8</t>
+          <t>15,2; 18,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,16; 33,4</t>
+          <t>29,0; 33,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,29; 32,62</t>
+          <t>28,18; 32,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,69; 39,88</t>
+          <t>35,47; 39,88</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,15; 18,8</t>
+          <t>16,28; 18,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,45; 27,51</t>
+          <t>24,29; 27,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,47; 29,48</t>
+          <t>26,35; 29,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,91; 37,01</t>
+          <t>32,8; 37,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,08; 23,01</t>
+          <t>20,18; 23,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,73; 36,23</t>
+          <t>32,8; 36,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,08; 36,5</t>
+          <t>33,29; 36,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,75; 39,06</t>
+          <t>33,59; 39,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,52; 20,57</t>
+          <t>18,61; 20,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,09; 31,49</t>
+          <t>29,17; 31,43</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>30,3; 32,64</t>
+          <t>30,37; 32,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,3; 37,67</t>
+          <t>34,08; 37,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P35-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P35-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>33,28%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,32; 24,08</t>
+          <t>15,23; 20,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,01; 29,34</t>
+          <t>20,95; 27,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,96; 29,08</t>
+          <t>18,82; 25,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,25; 37,53</t>
+          <t>28,65; 36,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 31,16</t>
+          <t>19,24; 25,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,8; 41,47</t>
+          <t>28,4; 36,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,39; 41,04</t>
+          <t>27,06; 34,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,18; 38,21</t>
+          <t>31,48; 37,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 25,34</t>
+          <t>17,84; 22,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,26; 33,06</t>
+          <t>25,59; 30,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,16; 31,5</t>
+          <t>23,98; 28,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,31; 34,8</t>
+          <t>30,89; 35,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>34,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>30,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>33,09%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>33,4%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,38; 21,95</t>
+          <t>13,56; 18,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,36; 28,8</t>
+          <t>23,31; 29,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,05; 26,5</t>
+          <t>25,42; 31,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,93; 39,49</t>
+          <t>15,15; 35,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,55; 25,6</t>
+          <t>20,58; 26,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,07; 36,18</t>
+          <t>31,83; 38,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,43; 34,3</t>
+          <t>34,25; 40,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,19; 39,71</t>
+          <t>38,45; 44,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 22,61</t>
+          <t>17,64; 21,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,71; 31,24</t>
+          <t>28,29; 32,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,04; 29,34</t>
+          <t>31,0; 35,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,19; 38,31</t>
+          <t>22,3; 38,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>30,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>29,75%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,56; 18,45</t>
+          <t>17,15; 23,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,31; 29,0</t>
+          <t>22,68; 30,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,42; 31,07</t>
+          <t>28,93; 36,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,59; 37,91</t>
+          <t>29,12; 37,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,58; 26,4</t>
+          <t>22,3; 28,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,83; 38,01</t>
+          <t>31,7; 39,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,25; 40,52</t>
+          <t>33,8; 40,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,37; 45,04</t>
+          <t>14,8; 36,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 21,49</t>
+          <t>20,57; 25,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,29; 32,44</t>
+          <t>28,45; 33,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31,0; 35,26</t>
+          <t>32,61; 37,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,84; 40,67</t>
+          <t>20,47; 35,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>35,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>35,38%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 23,92</t>
+          <t>14,77; 19,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,08</t>
+          <t>23,83; 30,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,93; 36,15</t>
+          <t>24,7; 30,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,72; 38,98</t>
+          <t>32,13; 38,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 28,85</t>
+          <t>14,63; 19,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,7; 39,03</t>
+          <t>31,87; 37,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,8; 40,95</t>
+          <t>29,86; 35,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,67; 37,85</t>
+          <t>28,34; 38,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,57; 25,18</t>
+          <t>15,2; 18,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,45; 33,4</t>
+          <t>29,0; 33,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,61; 37,63</t>
+          <t>28,18; 32,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,41; 36,92</t>
+          <t>31,51; 37,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>33,1%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,77; 19,25</t>
+          <t>16,28; 18,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,83; 30,35</t>
+          <t>24,29; 27,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,7; 30,52</t>
+          <t>26,35; 29,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,65; 40,05</t>
+          <t>24,24; 34,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,63; 19,43</t>
+          <t>20,18; 23,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,87; 37,83</t>
+          <t>32,8; 36,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,86; 35,89</t>
+          <t>33,29; 36,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,66; 41,22</t>
+          <t>28,36; 37,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,2; 18,53</t>
+          <t>18,61; 20,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,0; 33,64</t>
+          <t>29,17; 31,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,18; 32,64</t>
+          <t>30,37; 32,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,47; 39,88</t>
+          <t>27,88; 35,37</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>17,5%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>25,97%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>27,89%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>35,01%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>21,56%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>34,4%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>34,84%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>37,38%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>19,56%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>30,26%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>31,44%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>36,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>16,28; 18,79</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>24,29; 27,43</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>26,35; 29,55</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>32,8; 37,09</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>20,18; 23,21</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>32,8; 36,25</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>33,29; 36,43</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>33,59; 39,22</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>18,61; 20,5</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>29,17; 31,43</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>30,37; 32,66</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>34,08; 37,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P35-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P35-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,98</t>
+          <t>15,61; 21,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,95; 27,81</t>
+          <t>21,19; 27,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,82; 25,4</t>
+          <t>18,79; 25,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,65; 36,07</t>
+          <t>28,65; 36,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 25,64</t>
+          <t>19,1; 25,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,4; 36,0</t>
+          <t>28,34; 35,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,06; 34,2</t>
+          <t>27,04; 34,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,48; 37,22</t>
+          <t>31,43; 37,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,84; 22,35</t>
+          <t>18,2; 22,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,59; 30,46</t>
+          <t>25,53; 30,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,98; 28,68</t>
+          <t>23,88; 28,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,89; 35,58</t>
+          <t>30,97; 35,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,56; 18,45</t>
+          <t>13,61; 18,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,31; 29,0</t>
+          <t>23,32; 29,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,42; 31,07</t>
+          <t>25,82; 31,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,15; 35,53</t>
+          <t>14,76; 35,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,58; 26,4</t>
+          <t>20,57; 26,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,83; 38,01</t>
+          <t>31,81; 37,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,25; 40,52</t>
+          <t>34,38; 40,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,45; 44,02</t>
+          <t>38,67; 43,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,64; 21,49</t>
+          <t>17,81; 21,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,29; 32,44</t>
+          <t>28,25; 32,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,0; 35,26</t>
+          <t>30,8; 35,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,3; 38,33</t>
+          <t>22,7; 38,35</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,15; 23,92</t>
+          <t>16,81; 23,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,08</t>
+          <t>23,07; 30,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,93; 36,15</t>
+          <t>28,9; 36,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,12; 37,53</t>
+          <t>29,23; 37,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,3; 28,85</t>
+          <t>22,58; 29,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,7; 39,03</t>
+          <t>31,52; 38,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,8; 40,95</t>
+          <t>33,84; 41,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,8; 36,05</t>
+          <t>13,96; 36,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,57; 25,18</t>
+          <t>20,53; 25,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,45; 33,4</t>
+          <t>28,32; 33,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,61; 37,63</t>
+          <t>32,69; 37,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,47; 35,04</t>
+          <t>18,91; 35,13</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,77; 19,25</t>
+          <t>14,47; 19,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,83; 30,35</t>
+          <t>24,06; 30,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,7; 30,52</t>
+          <t>24,8; 30,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,13; 38,38</t>
+          <t>31,94; 38,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,63; 19,43</t>
+          <t>14,66; 19,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,87; 37,83</t>
+          <t>31,94; 37,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,86; 35,89</t>
+          <t>29,97; 36,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,34; 38,83</t>
+          <t>28,5; 38,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,2; 18,53</t>
+          <t>15,17; 18,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,0; 33,64</t>
+          <t>29,04; 33,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,18; 32,64</t>
+          <t>28,35; 32,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,51; 37,79</t>
+          <t>31,18; 37,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,79</t>
+          <t>16,12; 18,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,29; 27,43</t>
+          <t>24,29; 27,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,35; 29,55</t>
+          <t>26,19; 29,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,24; 34,61</t>
+          <t>24,92; 34,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,18; 23,21</t>
+          <t>20,04; 22,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,25</t>
+          <t>32,68; 36,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,29; 36,43</t>
+          <t>33,12; 36,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,36; 37,57</t>
+          <t>28,54; 37,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,61; 20,5</t>
+          <t>18,67; 20,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,17; 31,43</t>
+          <t>29,16; 31,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30,37; 32,66</t>
+          <t>30,3; 32,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,88; 35,37</t>
+          <t>28,57; 35,27</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que su médico le ha aconsejado hacer algún tipo de ejercicio físico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>119801</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>168368</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>145932</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>204817</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>146479</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>215890</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>204365</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>231123</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>266280</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>384259</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>350298</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>435941</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>103230; 141359</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>146878; 193770</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>125040; 170517</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>182075; 228989</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>124990; 168653</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>191368; 238942</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>180752; 228100</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>212039; 251568</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>239457; 295093</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>349309; 419754</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>318559; 383164</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>405783; 468121</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>146236</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>258312</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>289731</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>325731</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>215490</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>351483</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>385370</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>392567</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>361727</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>609794</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>675101</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>718298</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>126108; 171828</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>232380; 289130</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>261517; 320593</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>176016; 424423</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>190091; 241998</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>320476; 382748</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>353103; 416706</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>370281; 420338</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>329586; 400115</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>566162; 655607</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>628223; 716901</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>488248; 824769</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>127794</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>196270</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>244878</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>234359</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>161985</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>267450</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>288706</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>252674</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>289780</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>463720</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>533584</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>487033</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>106349; 149650</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>171237; 223323</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>217963; 272595</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>205945; 261955</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>143280; 185433</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>239714; 295231</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>260847; 316392</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>130192; 338913</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>260076; 319488</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>425572; 500156</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>498480; 574743</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>309573; 575267</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1033</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>153490</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>241084</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>250915</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>326756</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>167652</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>352565</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>339471</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>387269</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>321141</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>593649</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>590385</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>714025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>131194; 174240</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>215432; 269874</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>224872; 275627</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>296073; 355752</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>145880; 193819</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>322205; 382861</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>308595; 372618</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>311008; 423941</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>288517; 351302</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>553096; 636832</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>549086; 634618</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>629343; 764122</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2074</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>547321</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>864034</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>931456</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1091663</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>691606</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1187387</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1217911</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1263634</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1238927</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2051421</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2149368</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2355296</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>504055; 589433</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>808315; 918082</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>874749; 984567</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>862249; 1204823</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>643049; 737446</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1128156; 1243553</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1157730; 1281273</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1043356; 1361965</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1182969; 1304283</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1976645; 2138551</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2070915; 2231270</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2032995; 2509442</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>